--- a/Test-design techniques, Test-cases (hw_2).xlsx
+++ b/Test-design techniques, Test-cases (hw_2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\QAM10\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{134F9DE5-BD40-41F3-A29A-89BDCB7A71ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4550E3C8-0E0D-4928-985F-62260F68438B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="67">
   <si>
     <t>qwertyuiop</t>
   </si>
@@ -49,15 +49,9 @@
     <t>+</t>
   </si>
   <si>
-    <t>Error Guessing</t>
-  </si>
-  <si>
     <t>Приоритет</t>
   </si>
   <si>
-    <t>Функциональность</t>
-  </si>
-  <si>
     <t>Роль</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>Авторизация на сайте</t>
   </si>
   <si>
-    <t>Пользователь должен перейти на свой аккаунт</t>
-  </si>
-  <si>
     <t>Тестирование "черного ящика". Исследовательское тестирование</t>
   </si>
   <si>
@@ -97,90 +88,33 @@
     <t>Возврат на главную страницу сайта</t>
   </si>
   <si>
-    <t>Нажмите на кнопку "Home"</t>
-  </si>
-  <si>
-    <t>Должна открыться главная страница сайта</t>
-  </si>
-  <si>
     <t>Переход к транзакциям пользователя</t>
   </si>
   <si>
-    <t>На странице должны быть показаны последние транзакции пользователя</t>
-  </si>
-  <si>
     <t>Переход в раздел с депозитами</t>
   </si>
   <si>
-    <t>Должна открыться страница со строкой для ввода суммы депозита</t>
-  </si>
-  <si>
     <t>Осуществление депозита</t>
   </si>
   <si>
     <t>Переход в раздел для снятия средств</t>
   </si>
   <si>
-    <t>Должна открыться страница со строкой для ввода суммы</t>
-  </si>
-  <si>
     <t>Осуществление снятия средств</t>
   </si>
   <si>
-    <t>Должно появиться сообщение "Transaction successful"</t>
-  </si>
-  <si>
-    <t>Должно появиться сообщение "Deposit Successful"</t>
-  </si>
-  <si>
     <t>Проверка транзакций за определенный период</t>
   </si>
   <si>
-    <t>В разделе "Deposit" в специальной строке введите сумму и нажмите на кнопку "Deposit"</t>
-  </si>
-  <si>
-    <t>На странице пользователя нажмите на кнопку "Transactions"</t>
-  </si>
-  <si>
-    <t>На странице пользователя нажмите на кнопку "Deposit"</t>
-  </si>
-  <si>
-    <t>На странице пользователя нажмите на кнопку "Withdrawl"</t>
-  </si>
-  <si>
-    <t>В разделе "Withdrawl" в специальной строке введите сумму и нажать на кнопку "Withdraw"</t>
-  </si>
-  <si>
-    <t>Откройте сайт "XYZ Bank", нажмите на кнопку "Customer Login", Выберите  имя, нажмите на кнопку "Login"</t>
-  </si>
-  <si>
-    <t>Должна появиться таблица с транзакциями пользователя за выбранный период</t>
-  </si>
-  <si>
     <t>Сброс истории транзакций</t>
   </si>
   <si>
-    <t>На странице "Transactions" нажмите на кнопку "Reset"</t>
-  </si>
-  <si>
-    <t>Должна появиться пустая таблица</t>
-  </si>
-  <si>
-    <t>На странице "Transactions" нажмите на календарь, выберите и нажмите на необходимые дату и время</t>
-  </si>
-  <si>
     <t>низкий</t>
   </si>
   <si>
     <t>Выход из системы</t>
   </si>
   <si>
-    <t>На странице пользователя нажмите на кнопку "Logout"</t>
-  </si>
-  <si>
-    <t>Должна открыться страница с выбором имени пользователя</t>
-  </si>
-  <si>
     <t>QAM-01</t>
   </si>
   <si>
@@ -209,6 +143,104 @@
   </si>
   <si>
     <t>QAM-10</t>
+  </si>
+  <si>
+    <t>1.189</t>
+  </si>
+  <si>
+    <t>Открыт личный кабинет пользователя Harry Potter</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Открыта страница с последними транзакциями пользователя</t>
+  </si>
+  <si>
+    <t>Отображена страница со строкой для ввода суммы депозита</t>
+  </si>
+  <si>
+    <t>Предусловия</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "XYZ Bank" 
+2. Нажать на кнопку "Customer Login"</t>
+  </si>
+  <si>
+    <t>1. Выбрать  имя Harry Potter
+4. Нажать на кнопку "Login"</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "XYZ Bank" 
+2. Нажать на кнопку "Customer Login"
+3. Выбрать имя Harry Potter</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Home"</t>
+  </si>
+  <si>
+    <t>Отображена главная страница сайта</t>
+  </si>
+  <si>
+    <t>1.Нажать на кнопку "Transactions"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Deposit"</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "XYZ Bank" 
+2. Нажать на кнопку "Customer Login"
+3. Выбрать имя Harry Potter
+4. Нажать на кнопку "Deposit"</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "XYZ Bank" 
+2. Нажать на кнопку "Customer Login"
+3. Выбрать имя Harry Potter
+4. Нажать на кнопку "Withdrawl"</t>
+  </si>
+  <si>
+    <t>1.Ввести сумму "100"</t>
+  </si>
+  <si>
+    <t>Появилось сообщение "Deposit Successful"</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Withdrawl"</t>
+  </si>
+  <si>
+    <t>Открыта страница со строкой для ввода суммы</t>
+  </si>
+  <si>
+    <t>1. В специальной строке ввести сумму "300" и нажать на кнопку "Withdraw"</t>
+  </si>
+  <si>
+    <t>Появилось сообщение "Transaction successful"</t>
+  </si>
+  <si>
+    <t>1. Открыть сайт "XYZ Bank" 
+2. Нажать на кнопку "Customer Login"
+3. Выбрать имя Harry Potter
+4. Нажать на кнопку "Transactions"</t>
+  </si>
+  <si>
+    <t>Появилась таблица с транзакциями пользователя за 15 мая 2023 года</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Reset"</t>
+  </si>
+  <si>
+    <t>1. Кликнуть на календарь
+2. Выбрать дату 15 мая 2023 года</t>
+  </si>
+  <si>
+    <t>Появилась пустая таблица транзакций</t>
+  </si>
+  <si>
+    <t>1. Нажать на кнопку "Logout"</t>
+  </si>
+  <si>
+    <t>Открылась страница с именами пользователей</t>
   </si>
 </sst>
 </file>
@@ -324,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -377,130 +409,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="12" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBA8BDD"/>
-          <bgColor rgb="FFBA8BDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9CC2E5"/>
-          <bgColor rgb="FF9CC2E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDD6EE"/>
-          <bgColor rgb="FFBDD6EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00B050"/>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF000000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBA8BDD"/>
-          <bgColor rgb="FFBA8BDD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBFBFBF"/>
-          <bgColor rgb="FFBFBFBF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9CC2E5"/>
-          <bgColor rgb="FF9CC2E5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFBDD6EE"/>
-          <bgColor rgb="FFBDD6EE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -836,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120428FD-FFDF-4B94-85B8-9ED29BC97B75}">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -987,7 +904,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -998,7 +915,7 @@
         <v>1</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
@@ -1009,8 +926,22 @@
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>7</v>
-      </c>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1020,10 +951,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A07F89A-11E7-4FF4-8ACA-C8E4CE5E6A2D}">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1032,289 +963,323 @@
     <col min="2" max="2" width="12.44140625" customWidth="1"/>
     <col min="3" max="3" width="19.77734375" customWidth="1"/>
     <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="14.21875" customWidth="1"/>
-    <col min="6" max="6" width="24.21875" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" customWidth="1"/>
-    <col min="8" max="8" width="33.88671875" customWidth="1"/>
-    <col min="9" max="9" width="42.77734375" customWidth="1"/>
-    <col min="10" max="10" width="10" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="12.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.6640625"/>
+    <col min="5" max="5" width="20.6640625" customWidth="1"/>
+    <col min="6" max="6" width="25.33203125" customWidth="1"/>
+    <col min="7" max="7" width="24.21875" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" customWidth="1"/>
+    <col min="9" max="9" width="33.88671875" customWidth="1"/>
+    <col min="10" max="10" width="42.77734375" customWidth="1"/>
+    <col min="11" max="11" width="10" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" customWidth="1"/>
+    <col min="13" max="13" width="12.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="G1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
-    </row>
-    <row r="2" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="12"/>
+    </row>
+    <row r="3" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10"/>
+    </row>
+    <row r="4" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="10"/>
+    </row>
+    <row r="5" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="16" t="s">
+      <c r="G5" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="16" t="s">
+      <c r="C6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="E6" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="10"/>
+    </row>
+    <row r="8" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="12"/>
-    </row>
-    <row r="3" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="C9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="10"/>
-    </row>
-    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="10"/>
-    </row>
-    <row r="7" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="10"/>
-    </row>
-    <row r="9" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="14" t="s">
-        <v>60</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" s="16" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="G11" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" s="10"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
@@ -1323,8 +1288,9 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="10"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
       <c r="C13" s="10"/>
@@ -1333,8 +1299,9 @@
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
       <c r="H13" s="10"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
@@ -1343,8 +1310,9 @@
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
@@ -1353,8 +1321,9 @@
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
       <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
@@ -1363,40 +1332,41 @@
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
       <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="J1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
       <formula>"In Progress"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"New"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
       <formula>"Not applicable"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>"Not Run"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>"Blocked"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="cellIs" dxfId="1" priority="6" operator="equal">
       <formula>"Failed"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1">
+  <conditionalFormatting sqref="K1">
     <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
       <formula>"Passed"</formula>
     </cfRule>
